--- a/DatabaseSem3.xlsx
+++ b/DatabaseSem3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="93">
   <si>
     <t>User</t>
   </si>
@@ -143,6 +143,12 @@
     <t>Common</t>
   </si>
   <si>
+    <t>MapManu</t>
+  </si>
+  <si>
+    <t>MapPublish</t>
+  </si>
+  <si>
     <t>Code</t>
   </si>
   <si>
@@ -158,6 +164,12 @@
     <t>OderId</t>
   </si>
   <si>
+    <t>ManuId</t>
+  </si>
+  <si>
+    <t>PublishId</t>
+  </si>
+  <si>
     <t>CategoryId</t>
   </si>
   <si>
@@ -221,6 +233,12 @@
     <t>Sale</t>
   </si>
   <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>ManuPublish</t>
+  </si>
+  <si>
     <t>UserSale</t>
   </si>
   <si>
@@ -239,7 +257,7 @@
     <t>Feedback</t>
   </si>
   <si>
-    <t>FAQ</t>
+    <t>Title</t>
   </si>
   <si>
     <t>StartDate</t>
@@ -254,7 +272,10 @@
     <t>SaleId</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>Decription</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
   <si>
     <t>Used</t>
@@ -269,9 +290,6 @@
     <t>Content</t>
   </si>
   <si>
-    <t>Decription</t>
-  </si>
-  <si>
     <t>OtherMark</t>
   </si>
   <si>
@@ -288,9 +306,6 @@
   </si>
   <si>
     <t>ProductPrice</t>
-  </si>
-  <si>
-    <t>Address</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,16 +1034,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1567,10 +1585,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:AB58"/>
+  <dimension ref="C1:AE58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O22" workbookViewId="0">
-      <selection activeCell="AC38" sqref="AC38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1692,10 +1710,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="7"/>
       <c r="L10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1710,10 +1728,10 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="3:25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="4"/>
       <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1722,10 +1740,10 @@
         <v>19</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="7"/>
       <c r="O11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1817,10 +1835,10 @@
         <v>28</v>
       </c>
       <c r="P14" s="4"/>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="8"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="3" t="s">
@@ -1831,32 +1849,32 @@
         <v>28</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="6"/>
       <c r="L15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M15" s="4"/>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="8"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="3:13">
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="L16" s="7" t="s">
+      <c r="G16" s="6"/>
+      <c r="L16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="3" t="s">
@@ -1877,12 +1895,12 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="23" spans="3:25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="23" spans="3:31">
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1915,8 +1933,16 @@
         <v>37</v>
       </c>
       <c r="Y23" s="2"/>
-    </row>
-    <row r="24" spans="3:25">
+      <c r="AA23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AD23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE23" s="2"/>
+    </row>
+    <row r="24" spans="3:31">
       <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
@@ -1949,18 +1975,26 @@
         <v>6</v>
       </c>
       <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="3:25">
+      <c r="AA24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB24" s="4"/>
+      <c r="AD24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE24" s="4"/>
+    </row>
+    <row r="25" spans="3:31">
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4"/>
       <c r="F25" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" s="4"/>
       <c r="I25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J25" s="4"/>
       <c r="L25" s="3" t="s">
@@ -1968,11 +2002,11 @@
       </c>
       <c r="M25" s="4"/>
       <c r="O25" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P25" s="4"/>
       <c r="R25" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S25" s="4"/>
       <c r="U25" s="3" t="s">
@@ -1983,14 +2017,22 @@
         <v>8</v>
       </c>
       <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="3:25">
+      <c r="AA25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB25" s="4"/>
+      <c r="AD25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE25" s="4"/>
+    </row>
+    <row r="26" spans="3:31">
       <c r="C26" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D26" s="4"/>
       <c r="F26" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G26" s="4"/>
       <c r="I26" s="3" t="s">
@@ -1998,15 +2040,15 @@
       </c>
       <c r="J26" s="4"/>
       <c r="L26" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M26" s="4"/>
       <c r="O26" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P26" s="4"/>
       <c r="R26" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S26" s="4"/>
       <c r="U26" s="3" t="s">
@@ -2014,11 +2056,19 @@
       </c>
       <c r="V26" s="4"/>
       <c r="X26" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="3:25">
+      <c r="AA26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB26" s="4"/>
+      <c r="AD26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE26" s="4"/>
+    </row>
+    <row r="27" spans="3:31">
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2028,11 +2078,11 @@
       </c>
       <c r="G27" s="4"/>
       <c r="I27" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J27" s="4"/>
       <c r="L27" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M27" s="4"/>
       <c r="O27" s="3" t="s">
@@ -2040,19 +2090,27 @@
       </c>
       <c r="P27" s="4"/>
       <c r="R27" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S27" s="4"/>
-      <c r="U27" s="5" t="s">
+      <c r="U27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V27" s="6"/>
-      <c r="X27" s="5" t="s">
+      <c r="V27" s="4"/>
+      <c r="X27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y27" s="6"/>
-    </row>
-    <row r="28" spans="3:25">
+      <c r="Y27" s="4"/>
+      <c r="AA27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB27" s="4"/>
+      <c r="AD27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE27" s="4"/>
+    </row>
+    <row r="28" spans="3:31">
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
@@ -2074,19 +2132,27 @@
       </c>
       <c r="P28" s="4"/>
       <c r="R28" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S28" s="4"/>
       <c r="U28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="V28" s="4"/>
-      <c r="X28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y28" s="6"/>
-    </row>
-    <row r="29" spans="3:25">
+      <c r="X28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="AA28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB28" s="4"/>
+      <c r="AD28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE28" s="4"/>
+    </row>
+    <row r="29" spans="3:31">
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
@@ -2099,16 +2165,16 @@
         <v>16</v>
       </c>
       <c r="J29" s="4"/>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="9"/>
+      <c r="M29" s="7"/>
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P29" s="4"/>
       <c r="R29" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S29" s="4"/>
       <c r="U29" s="3" t="s">
@@ -2119,20 +2185,28 @@
         <v>19</v>
       </c>
       <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="3:25">
+      <c r="AA29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB29" s="4"/>
+      <c r="AD29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE29" s="4"/>
+    </row>
+    <row r="30" spans="3:31">
       <c r="C30" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D30" s="4"/>
       <c r="F30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="7"/>
       <c r="L30" s="3" t="s">
         <v>19</v>
       </c>
@@ -2141,10 +2215,10 @@
         <v>28</v>
       </c>
       <c r="P30" s="4"/>
-      <c r="R30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S30" s="6"/>
+      <c r="R30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S30" s="4"/>
       <c r="U30" s="3" t="s">
         <v>24</v>
       </c>
@@ -2153,16 +2227,24 @@
         <v>21</v>
       </c>
       <c r="Y30" s="4"/>
+      <c r="AA30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB30" s="6"/>
+      <c r="AD30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE30" s="6"/>
     </row>
     <row r="31" spans="3:25">
       <c r="C31" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="6"/>
       <c r="I31" s="3" t="s">
         <v>19</v>
       </c>
@@ -2171,14 +2253,14 @@
         <v>21</v>
       </c>
       <c r="M31" s="4"/>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P31" s="8"/>
-      <c r="R31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="R31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S31" s="4"/>
       <c r="U31" s="3" t="s">
         <v>28</v>
       </c>
@@ -2190,7 +2272,7 @@
     </row>
     <row r="32" spans="3:25">
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D32" s="4"/>
       <c r="I32" s="3" t="s">
@@ -2201,14 +2283,14 @@
         <v>24</v>
       </c>
       <c r="M32" s="4"/>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="U32" s="7" t="s">
+      <c r="S32" s="4"/>
+      <c r="U32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V32" s="8"/>
+      <c r="V32" s="6"/>
       <c r="X32" s="3" t="s">
         <v>28</v>
       </c>
@@ -2216,7 +2298,7 @@
     </row>
     <row r="33" spans="3:25">
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D33" s="4"/>
       <c r="I33" s="3" t="s">
@@ -2227,28 +2309,28 @@
         <v>28</v>
       </c>
       <c r="M33" s="4"/>
-      <c r="R33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S33" s="6"/>
-      <c r="X33" s="7" t="s">
+      <c r="R33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S33" s="4"/>
+      <c r="X33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Y33" s="8"/>
+      <c r="Y33" s="6"/>
     </row>
     <row r="34" spans="3:19">
       <c r="C34" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D34" s="4"/>
       <c r="I34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J34" s="4"/>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="8"/>
+      <c r="M34" s="6"/>
       <c r="R34" s="3" t="s">
         <v>19</v>
       </c>
@@ -2256,23 +2338,23 @@
     </row>
     <row r="35" spans="3:19">
       <c r="C35" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="8"/>
+      <c r="J35" s="6"/>
       <c r="R35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="3:19">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="7"/>
       <c r="R36" s="3" t="s">
         <v>24</v>
       </c>
@@ -2294,15 +2376,15 @@
       </c>
       <c r="D38" s="4"/>
       <c r="F38" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S38" s="8"/>
-    </row>
-    <row r="39" spans="3:7">
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="3:31">
       <c r="C39" s="3" t="s">
         <v>24</v>
       </c>
@@ -2311,8 +2393,16 @@
         <v>6</v>
       </c>
       <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="3:10">
+      <c r="AA39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB39" s="2"/>
+      <c r="AD39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE39" s="2"/>
+    </row>
+    <row r="40" spans="3:31">
       <c r="C40" s="3" t="s">
         <v>28</v>
       </c>
@@ -2322,17 +2412,25 @@
       </c>
       <c r="G40" s="4"/>
       <c r="I40" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="3:28">
-      <c r="C41" s="7" t="s">
+      <c r="AA40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB40" s="4"/>
+      <c r="AD40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE40" s="4"/>
+    </row>
+    <row r="41" spans="3:31">
+      <c r="C41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="6"/>
       <c r="F41" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G41" s="4"/>
       <c r="I41" s="3" t="s">
@@ -2340,29 +2438,33 @@
       </c>
       <c r="J41" s="4"/>
       <c r="L41" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M41" s="2"/>
       <c r="O41" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="P41" s="2"/>
       <c r="U41" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="V41" s="2"/>
       <c r="X41" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Y41" s="2"/>
-      <c r="AA41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB41" s="2"/>
-    </row>
-    <row r="42" spans="6:28">
+      <c r="AA41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB41" s="4"/>
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE41" s="4"/>
+    </row>
+    <row r="42" spans="6:31">
       <c r="F42" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G42" s="4"/>
       <c r="I42" s="3" t="s">
@@ -2386,25 +2488,29 @@
       </c>
       <c r="Y42" s="4"/>
       <c r="AA42" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="AB42" s="4"/>
-    </row>
-    <row r="43" spans="3:28">
+      <c r="AD42" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE42" s="9"/>
+    </row>
+    <row r="43" spans="3:31">
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G43" s="4"/>
       <c r="I43" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J43" s="4"/>
       <c r="L43" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M43" s="4"/>
       <c r="O43" s="3" t="s">
@@ -2412,57 +2518,65 @@
       </c>
       <c r="P43" s="4"/>
       <c r="U43" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V43" s="4"/>
       <c r="X43" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="AA43" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB43" s="4"/>
-    </row>
-    <row r="44" spans="3:28">
+      <c r="AD43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE43" s="10"/>
+    </row>
+    <row r="44" spans="3:31">
       <c r="C44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="4"/>
       <c r="F44" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G44" s="4"/>
       <c r="I44" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J44" s="4"/>
       <c r="L44" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M44" s="4"/>
       <c r="O44" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P44" s="4"/>
       <c r="R44" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="S44" s="2"/>
       <c r="U44" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="V44" s="4"/>
       <c r="X44" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="AA44" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="AB44" s="4"/>
-    </row>
-    <row r="45" spans="3:28">
+      <c r="AD44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE44" s="4"/>
+    </row>
+    <row r="45" spans="3:31">
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
@@ -2480,7 +2594,7 @@
       </c>
       <c r="M45" s="4"/>
       <c r="O45" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P45" s="4"/>
       <c r="R45" s="3" t="s">
@@ -2492,37 +2606,41 @@
       </c>
       <c r="V45" s="4"/>
       <c r="X45" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="AA45" s="3" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AB45" s="4"/>
-    </row>
-    <row r="46" spans="3:28">
+      <c r="AD45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE45" s="4"/>
+    </row>
+    <row r="46" spans="3:31">
       <c r="C46" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="I46" s="9" t="s">
+      <c r="G46" s="7"/>
+      <c r="I46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="7"/>
+      <c r="L46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M46" s="9"/>
+      <c r="M46" s="7"/>
       <c r="O46" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P46" s="4"/>
       <c r="R46" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S46" s="4"/>
       <c r="U46" s="3" t="s">
@@ -2534,13 +2652,17 @@
       </c>
       <c r="Y46" s="4"/>
       <c r="AA46" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AB46" s="4"/>
-    </row>
-    <row r="47" spans="3:28">
+      <c r="AD46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE46" s="4"/>
+    </row>
+    <row r="47" spans="3:31">
       <c r="C47" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="3" t="s">
@@ -2560,7 +2682,7 @@
       </c>
       <c r="P47" s="4"/>
       <c r="R47" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S47" s="4"/>
       <c r="U47" s="3" t="s">
@@ -2572,11 +2694,15 @@
       </c>
       <c r="Y47" s="4"/>
       <c r="AA47" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AB47" s="4"/>
-    </row>
-    <row r="48" spans="3:28">
+      <c r="AD47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE47" s="4"/>
+    </row>
+    <row r="48" spans="3:31">
       <c r="C48" s="3" t="s">
         <v>20</v>
       </c>
@@ -2593,12 +2719,12 @@
         <v>21</v>
       </c>
       <c r="M48" s="4"/>
-      <c r="O48" s="9" t="s">
+      <c r="O48" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P48" s="9"/>
+      <c r="P48" s="7"/>
       <c r="R48" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S48" s="4"/>
       <c r="U48" s="3" t="s">
@@ -2609,14 +2735,18 @@
         <v>24</v>
       </c>
       <c r="Y48" s="4"/>
-      <c r="AA48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB48" s="4"/>
-    </row>
-    <row r="49" spans="3:28">
+      <c r="AA48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB48" s="6"/>
+      <c r="AD48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE48" s="4"/>
+    </row>
+    <row r="49" spans="3:31">
       <c r="C49" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D49" s="4"/>
       <c r="F49" s="3" t="s">
@@ -2636,25 +2766,25 @@
       </c>
       <c r="P49" s="4"/>
       <c r="R49" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S49" s="4"/>
-      <c r="U49" s="7" t="s">
+      <c r="U49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V49" s="8"/>
+      <c r="V49" s="6"/>
       <c r="X49" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y49" s="4"/>
-      <c r="AA49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB49" s="4"/>
-    </row>
-    <row r="50" spans="3:28">
+      <c r="AD49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE49" s="4"/>
+    </row>
+    <row r="50" spans="3:31">
       <c r="C50" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D50" s="4"/>
       <c r="F50" s="3" t="s">
@@ -2674,35 +2804,35 @@
       </c>
       <c r="P50" s="4"/>
       <c r="R50" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="S50" s="4"/>
-      <c r="X50" s="7" t="s">
+      <c r="X50" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Y50" s="8"/>
-      <c r="AA50" s="7" t="s">
+      <c r="Y50" s="6"/>
+      <c r="AD50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE50" s="4"/>
+    </row>
+    <row r="51" spans="3:31">
+      <c r="C51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="F51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB50" s="8"/>
-    </row>
-    <row r="51" spans="3:19">
-      <c r="C51" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="6"/>
+      <c r="I51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="I51" s="7" t="s">
+      <c r="J51" s="6"/>
+      <c r="L51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="L51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" s="8"/>
+      <c r="M51" s="6"/>
       <c r="O51" s="3" t="s">
         <v>24</v>
       </c>
@@ -2711,6 +2841,10 @@
         <v>19</v>
       </c>
       <c r="S51" s="4"/>
+      <c r="AD51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE51" s="6"/>
     </row>
     <row r="52" spans="3:19">
       <c r="C52" s="3" t="s">
@@ -2731,10 +2865,10 @@
         <v>17</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="O53" s="7" t="s">
+      <c r="O53" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P53" s="8"/>
+      <c r="P53" s="6"/>
       <c r="R53" s="3" t="s">
         <v>24</v>
       </c>
@@ -2755,10 +2889,10 @@
         <v>21</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="R55" s="7" t="s">
+      <c r="R55" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S55" s="8"/>
+      <c r="S55" s="6"/>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" s="3" t="s">
@@ -2773,13 +2907,13 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="8"/>
+      <c r="D58" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="301">
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
@@ -2854,6 +2988,8 @@
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AD23:AE23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="I24:J24"/>
@@ -2862,6 +2998,8 @@
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AD24:AE24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="I25:J25"/>
@@ -2870,6 +3008,8 @@
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="U25:V25"/>
     <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AD25:AE25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="I26:J26"/>
@@ -2878,6 +3018,8 @@
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="U26:V26"/>
     <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AD26:AE26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="I27:J27"/>
@@ -2886,6 +3028,8 @@
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="U27:V27"/>
     <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AD27:AE27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="I28:J28"/>
@@ -2894,6 +3038,8 @@
     <mergeCell ref="R28:S28"/>
     <mergeCell ref="U28:V28"/>
     <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="I29:J29"/>
@@ -2902,6 +3048,8 @@
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="U29:V29"/>
     <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AD29:AE29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="I30:J30"/>
@@ -2910,6 +3058,8 @@
     <mergeCell ref="R30:S30"/>
     <mergeCell ref="U30:V30"/>
     <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AD30:AE30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="I31:J31"/>
@@ -2945,9 +3095,13 @@
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="AD39:AE39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="I40:J40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AD40:AE40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="I41:J41"/>
@@ -2956,6 +3110,7 @@
     <mergeCell ref="U41:V41"/>
     <mergeCell ref="X41:Y41"/>
     <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AD41:AE41"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="L42:M42"/>
@@ -2963,6 +3118,7 @@
     <mergeCell ref="U42:V42"/>
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AD42:AE42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="I43:J43"/>
@@ -2971,6 +3127,7 @@
     <mergeCell ref="U43:V43"/>
     <mergeCell ref="X43:Y43"/>
     <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="AD43:AE43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="I44:J44"/>
@@ -2980,6 +3137,7 @@
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="X44:Y44"/>
     <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AD44:AE44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="I45:J45"/>
@@ -2989,6 +3147,7 @@
     <mergeCell ref="U45:V45"/>
     <mergeCell ref="X45:Y45"/>
     <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AD45:AE45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="I46:J46"/>
@@ -2998,6 +3157,7 @@
     <mergeCell ref="U46:V46"/>
     <mergeCell ref="X46:Y46"/>
     <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AD46:AE46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="I47:J47"/>
@@ -3007,6 +3167,7 @@
     <mergeCell ref="U47:V47"/>
     <mergeCell ref="X47:Y47"/>
     <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AD47:AE47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="I48:J48"/>
@@ -3016,6 +3177,7 @@
     <mergeCell ref="U48:V48"/>
     <mergeCell ref="X48:Y48"/>
     <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AD48:AE48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="I49:J49"/>
@@ -3024,7 +3186,7 @@
     <mergeCell ref="R49:S49"/>
     <mergeCell ref="U49:V49"/>
     <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AD49:AE49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="I50:J50"/>
@@ -3032,13 +3194,14 @@
     <mergeCell ref="O50:P50"/>
     <mergeCell ref="R50:S50"/>
     <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="AA50:AB50"/>
+    <mergeCell ref="AD50:AE50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="O51:P51"/>
     <mergeCell ref="R51:S51"/>
+    <mergeCell ref="AD51:AE51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="O52:P52"/>
     <mergeCell ref="R52:S52"/>

--- a/DatabaseSem3.xlsx
+++ b/DatabaseSem3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="93">
   <si>
     <t>User</t>
   </si>
@@ -143,6 +143,12 @@
     <t>Common</t>
   </si>
   <si>
+    <t>MapManu</t>
+  </si>
+  <si>
+    <t>MapPublish</t>
+  </si>
+  <si>
     <t>Code</t>
   </si>
   <si>
@@ -158,6 +164,12 @@
     <t>OderId</t>
   </si>
   <si>
+    <t>ManuId</t>
+  </si>
+  <si>
+    <t>PublishId</t>
+  </si>
+  <si>
     <t>CategoryId</t>
   </si>
   <si>
@@ -221,6 +233,12 @@
     <t>Sale</t>
   </si>
   <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>ManuPublish</t>
+  </si>
+  <si>
     <t>UserSale</t>
   </si>
   <si>
@@ -239,7 +257,7 @@
     <t>Feedback</t>
   </si>
   <si>
-    <t>FAQ</t>
+    <t>Title</t>
   </si>
   <si>
     <t>StartDate</t>
@@ -254,7 +272,10 @@
     <t>SaleId</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>Decription</t>
+  </si>
+  <si>
+    <t>Address</t>
   </si>
   <si>
     <t>Used</t>
@@ -269,9 +290,6 @@
     <t>Content</t>
   </si>
   <si>
-    <t>Decription</t>
-  </si>
-  <si>
     <t>OtherMark</t>
   </si>
   <si>
@@ -288,9 +306,6 @@
   </si>
   <si>
     <t>ProductPrice</t>
-  </si>
-  <si>
-    <t>Address</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1011,12 +1026,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1567,10 +1576,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:AB58"/>
+  <dimension ref="C1:AE58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="O22" workbookViewId="0">
-      <selection activeCell="AC38" sqref="AC38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1692,10 +1701,10 @@
         <v>16</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="7"/>
       <c r="L10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1710,10 +1719,10 @@
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="3:25">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="4"/>
       <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1722,10 +1731,10 @@
         <v>19</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="9"/>
+      <c r="M11" s="7"/>
       <c r="O11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1817,10 +1826,10 @@
         <v>28</v>
       </c>
       <c r="P14" s="4"/>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="8"/>
+      <c r="S14" s="6"/>
     </row>
     <row r="15" spans="3:16">
       <c r="C15" s="3" t="s">
@@ -1831,32 +1840,32 @@
         <v>28</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="6"/>
       <c r="L15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="M15" s="4"/>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="8"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="3:13">
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="L16" s="7" t="s">
+      <c r="G16" s="6"/>
+      <c r="L16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="3" t="s">
@@ -1877,12 +1886,12 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="23" spans="3:25">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="23" spans="3:31">
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1915,8 +1924,16 @@
         <v>37</v>
       </c>
       <c r="Y23" s="2"/>
-    </row>
-    <row r="24" spans="3:25">
+      <c r="AA23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AD23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE23" s="2"/>
+    </row>
+    <row r="24" spans="3:31">
       <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
@@ -1949,18 +1966,26 @@
         <v>6</v>
       </c>
       <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="3:25">
+      <c r="AA24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB24" s="4"/>
+      <c r="AD24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE24" s="4"/>
+    </row>
+    <row r="25" spans="3:31">
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4"/>
       <c r="F25" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G25" s="4"/>
       <c r="I25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J25" s="4"/>
       <c r="L25" s="3" t="s">
@@ -1968,11 +1993,11 @@
       </c>
       <c r="M25" s="4"/>
       <c r="O25" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P25" s="4"/>
       <c r="R25" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S25" s="4"/>
       <c r="U25" s="3" t="s">
@@ -1983,14 +2008,22 @@
         <v>8</v>
       </c>
       <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="3:25">
+      <c r="AA25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB25" s="4"/>
+      <c r="AD25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE25" s="4"/>
+    </row>
+    <row r="26" spans="3:31">
       <c r="C26" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D26" s="4"/>
       <c r="F26" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G26" s="4"/>
       <c r="I26" s="3" t="s">
@@ -1998,15 +2031,15 @@
       </c>
       <c r="J26" s="4"/>
       <c r="L26" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M26" s="4"/>
       <c r="O26" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P26" s="4"/>
       <c r="R26" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="S26" s="4"/>
       <c r="U26" s="3" t="s">
@@ -2014,11 +2047,19 @@
       </c>
       <c r="V26" s="4"/>
       <c r="X26" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="3:25">
+      <c r="AA26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB26" s="4"/>
+      <c r="AD26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE26" s="4"/>
+    </row>
+    <row r="27" spans="3:31">
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2028,11 +2069,11 @@
       </c>
       <c r="G27" s="4"/>
       <c r="I27" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J27" s="4"/>
       <c r="L27" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M27" s="4"/>
       <c r="O27" s="3" t="s">
@@ -2040,19 +2081,27 @@
       </c>
       <c r="P27" s="4"/>
       <c r="R27" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S27" s="4"/>
-      <c r="U27" s="5" t="s">
+      <c r="U27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V27" s="6"/>
-      <c r="X27" s="5" t="s">
+      <c r="V27" s="4"/>
+      <c r="X27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y27" s="6"/>
-    </row>
-    <row r="28" spans="3:25">
+      <c r="Y27" s="4"/>
+      <c r="AA27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB27" s="4"/>
+      <c r="AD27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE27" s="4"/>
+    </row>
+    <row r="28" spans="3:31">
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
@@ -2074,19 +2123,27 @@
       </c>
       <c r="P28" s="4"/>
       <c r="R28" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="S28" s="4"/>
       <c r="U28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="V28" s="4"/>
-      <c r="X28" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y28" s="6"/>
-    </row>
-    <row r="29" spans="3:25">
+      <c r="X28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="AA28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB28" s="4"/>
+      <c r="AD28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE28" s="4"/>
+    </row>
+    <row r="29" spans="3:31">
       <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
@@ -2099,16 +2156,16 @@
         <v>16</v>
       </c>
       <c r="J29" s="4"/>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M29" s="9"/>
+      <c r="M29" s="7"/>
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="P29" s="4"/>
       <c r="R29" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S29" s="4"/>
       <c r="U29" s="3" t="s">
@@ -2119,20 +2176,28 @@
         <v>19</v>
       </c>
       <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="3:25">
+      <c r="AA29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB29" s="4"/>
+      <c r="AD29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE29" s="4"/>
+    </row>
+    <row r="30" spans="3:31">
       <c r="C30" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D30" s="4"/>
       <c r="F30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="7"/>
       <c r="L30" s="3" t="s">
         <v>19</v>
       </c>
@@ -2141,10 +2206,10 @@
         <v>28</v>
       </c>
       <c r="P30" s="4"/>
-      <c r="R30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S30" s="6"/>
+      <c r="R30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S30" s="4"/>
       <c r="U30" s="3" t="s">
         <v>24</v>
       </c>
@@ -2153,16 +2218,24 @@
         <v>21</v>
       </c>
       <c r="Y30" s="4"/>
+      <c r="AA30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB30" s="6"/>
+      <c r="AD30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE30" s="6"/>
     </row>
     <row r="31" spans="3:25">
       <c r="C31" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="8"/>
+      <c r="G31" s="6"/>
       <c r="I31" s="3" t="s">
         <v>19</v>
       </c>
@@ -2171,14 +2244,14 @@
         <v>21</v>
       </c>
       <c r="M31" s="4"/>
-      <c r="O31" s="7" t="s">
+      <c r="O31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P31" s="8"/>
-      <c r="R31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="R31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S31" s="4"/>
       <c r="U31" s="3" t="s">
         <v>28</v>
       </c>
@@ -2190,7 +2263,7 @@
     </row>
     <row r="32" spans="3:25">
       <c r="C32" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D32" s="4"/>
       <c r="I32" s="3" t="s">
@@ -2201,14 +2274,14 @@
         <v>24</v>
       </c>
       <c r="M32" s="4"/>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="U32" s="7" t="s">
+      <c r="S32" s="4"/>
+      <c r="U32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V32" s="8"/>
+      <c r="V32" s="6"/>
       <c r="X32" s="3" t="s">
         <v>28</v>
       </c>
@@ -2216,7 +2289,7 @@
     </row>
     <row r="33" spans="3:25">
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D33" s="4"/>
       <c r="I33" s="3" t="s">
@@ -2227,28 +2300,28 @@
         <v>28</v>
       </c>
       <c r="M33" s="4"/>
-      <c r="R33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S33" s="6"/>
-      <c r="X33" s="7" t="s">
+      <c r="R33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="S33" s="4"/>
+      <c r="X33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Y33" s="8"/>
+      <c r="Y33" s="6"/>
     </row>
     <row r="34" spans="3:19">
       <c r="C34" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D34" s="4"/>
       <c r="I34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J34" s="4"/>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="8"/>
+      <c r="M34" s="6"/>
       <c r="R34" s="3" t="s">
         <v>19</v>
       </c>
@@ -2256,23 +2329,23 @@
     </row>
     <row r="35" spans="3:19">
       <c r="C35" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="8"/>
+      <c r="J35" s="6"/>
       <c r="R35" s="3" t="s">
         <v>21</v>
       </c>
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="3:19">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="7"/>
       <c r="R36" s="3" t="s">
         <v>24</v>
       </c>
@@ -2294,15 +2367,15 @@
       </c>
       <c r="D38" s="4"/>
       <c r="F38" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="R38" s="7" t="s">
+      <c r="R38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S38" s="8"/>
-    </row>
-    <row r="39" spans="3:7">
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="3:31">
       <c r="C39" s="3" t="s">
         <v>24</v>
       </c>
@@ -2311,8 +2384,16 @@
         <v>6</v>
       </c>
       <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="3:10">
+      <c r="AA39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB39" s="2"/>
+      <c r="AD39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE39" s="2"/>
+    </row>
+    <row r="40" spans="3:31">
       <c r="C40" s="3" t="s">
         <v>28</v>
       </c>
@@ -2322,17 +2403,25 @@
       </c>
       <c r="G40" s="4"/>
       <c r="I40" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="3:28">
-      <c r="C41" s="7" t="s">
+      <c r="AA40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB40" s="4"/>
+      <c r="AD40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE40" s="4"/>
+    </row>
+    <row r="41" spans="3:31">
+      <c r="C41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="6"/>
       <c r="F41" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G41" s="4"/>
       <c r="I41" s="3" t="s">
@@ -2340,29 +2429,33 @@
       </c>
       <c r="J41" s="4"/>
       <c r="L41" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M41" s="2"/>
       <c r="O41" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="P41" s="2"/>
       <c r="U41" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="V41" s="2"/>
       <c r="X41" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Y41" s="2"/>
-      <c r="AA41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB41" s="2"/>
-    </row>
-    <row r="42" spans="6:28">
+      <c r="AA41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB41" s="4"/>
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE41" s="4"/>
+    </row>
+    <row r="42" spans="6:31">
       <c r="F42" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G42" s="4"/>
       <c r="I42" s="3" t="s">
@@ -2386,25 +2479,29 @@
       </c>
       <c r="Y42" s="4"/>
       <c r="AA42" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="AB42" s="4"/>
-    </row>
-    <row r="43" spans="3:28">
+      <c r="AD42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE42" s="4"/>
+    </row>
+    <row r="43" spans="3:31">
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2"/>
       <c r="F43" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G43" s="4"/>
       <c r="I43" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J43" s="4"/>
       <c r="L43" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M43" s="4"/>
       <c r="O43" s="3" t="s">
@@ -2412,57 +2509,65 @@
       </c>
       <c r="P43" s="4"/>
       <c r="U43" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V43" s="4"/>
       <c r="X43" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="AA43" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AB43" s="4"/>
-    </row>
-    <row r="44" spans="3:28">
+      <c r="AD43" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE43" s="7"/>
+    </row>
+    <row r="44" spans="3:31">
       <c r="C44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="4"/>
       <c r="F44" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G44" s="4"/>
       <c r="I44" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J44" s="4"/>
       <c r="L44" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M44" s="4"/>
       <c r="O44" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P44" s="4"/>
       <c r="R44" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="S44" s="2"/>
       <c r="U44" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="V44" s="4"/>
       <c r="X44" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="AA44" s="3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="AB44" s="4"/>
-    </row>
-    <row r="45" spans="3:28">
+      <c r="AD44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE44" s="4"/>
+    </row>
+    <row r="45" spans="3:31">
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
@@ -2480,7 +2585,7 @@
       </c>
       <c r="M45" s="4"/>
       <c r="O45" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P45" s="4"/>
       <c r="R45" s="3" t="s">
@@ -2492,37 +2597,41 @@
       </c>
       <c r="V45" s="4"/>
       <c r="X45" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="AA45" s="3" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AB45" s="4"/>
-    </row>
-    <row r="46" spans="3:28">
+      <c r="AD45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE45" s="4"/>
+    </row>
+    <row r="46" spans="3:31">
       <c r="C46" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="I46" s="9" t="s">
+      <c r="G46" s="7"/>
+      <c r="I46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="7"/>
+      <c r="L46" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M46" s="9"/>
+      <c r="M46" s="7"/>
       <c r="O46" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P46" s="4"/>
       <c r="R46" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S46" s="4"/>
       <c r="U46" s="3" t="s">
@@ -2534,13 +2643,17 @@
       </c>
       <c r="Y46" s="4"/>
       <c r="AA46" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AB46" s="4"/>
-    </row>
-    <row r="47" spans="3:28">
+      <c r="AD46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE46" s="4"/>
+    </row>
+    <row r="47" spans="3:31">
       <c r="C47" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="3" t="s">
@@ -2560,7 +2673,7 @@
       </c>
       <c r="P47" s="4"/>
       <c r="R47" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="S47" s="4"/>
       <c r="U47" s="3" t="s">
@@ -2572,11 +2685,15 @@
       </c>
       <c r="Y47" s="4"/>
       <c r="AA47" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AB47" s="4"/>
-    </row>
-    <row r="48" spans="3:28">
+      <c r="AD47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE47" s="4"/>
+    </row>
+    <row r="48" spans="3:31">
       <c r="C48" s="3" t="s">
         <v>20</v>
       </c>
@@ -2593,12 +2710,12 @@
         <v>21</v>
       </c>
       <c r="M48" s="4"/>
-      <c r="O48" s="9" t="s">
+      <c r="O48" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P48" s="9"/>
+      <c r="P48" s="7"/>
       <c r="R48" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S48" s="4"/>
       <c r="U48" s="3" t="s">
@@ -2609,14 +2726,18 @@
         <v>24</v>
       </c>
       <c r="Y48" s="4"/>
-      <c r="AA48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB48" s="4"/>
-    </row>
-    <row r="49" spans="3:28">
+      <c r="AA48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB48" s="6"/>
+      <c r="AD48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE48" s="4"/>
+    </row>
+    <row r="49" spans="3:31">
       <c r="C49" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D49" s="4"/>
       <c r="F49" s="3" t="s">
@@ -2636,25 +2757,25 @@
       </c>
       <c r="P49" s="4"/>
       <c r="R49" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S49" s="4"/>
-      <c r="U49" s="7" t="s">
+      <c r="U49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V49" s="8"/>
+      <c r="V49" s="6"/>
       <c r="X49" s="3" t="s">
         <v>28</v>
       </c>
       <c r="Y49" s="4"/>
-      <c r="AA49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB49" s="4"/>
-    </row>
-    <row r="50" spans="3:28">
+      <c r="AD49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE49" s="4"/>
+    </row>
+    <row r="50" spans="3:31">
       <c r="C50" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D50" s="4"/>
       <c r="F50" s="3" t="s">
@@ -2674,35 +2795,35 @@
       </c>
       <c r="P50" s="4"/>
       <c r="R50" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="S50" s="4"/>
-      <c r="X50" s="7" t="s">
+      <c r="X50" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Y50" s="8"/>
-      <c r="AA50" s="7" t="s">
+      <c r="Y50" s="6"/>
+      <c r="AD50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE50" s="4"/>
+    </row>
+    <row r="51" spans="3:31">
+      <c r="C51" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="F51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB50" s="8"/>
-    </row>
-    <row r="51" spans="3:19">
-      <c r="C51" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="6"/>
+      <c r="I51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="I51" s="7" t="s">
+      <c r="J51" s="6"/>
+      <c r="L51" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="L51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" s="8"/>
+      <c r="M51" s="6"/>
       <c r="O51" s="3" t="s">
         <v>24</v>
       </c>
@@ -2711,6 +2832,10 @@
         <v>19</v>
       </c>
       <c r="S51" s="4"/>
+      <c r="AD51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE51" s="6"/>
     </row>
     <row r="52" spans="3:19">
       <c r="C52" s="3" t="s">
@@ -2731,10 +2856,10 @@
         <v>17</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="O53" s="7" t="s">
+      <c r="O53" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P53" s="8"/>
+      <c r="P53" s="6"/>
       <c r="R53" s="3" t="s">
         <v>24</v>
       </c>
@@ -2755,10 +2880,10 @@
         <v>21</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="R55" s="7" t="s">
+      <c r="R55" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S55" s="8"/>
+      <c r="S55" s="6"/>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" s="3" t="s">
@@ -2773,13 +2898,13 @@
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D58" s="8"/>
+      <c r="D58" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="301">
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
@@ -2854,6 +2979,8 @@
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AD23:AE23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="I24:J24"/>
@@ -2862,6 +2989,8 @@
     <mergeCell ref="R24:S24"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AD24:AE24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="I25:J25"/>
@@ -2870,6 +2999,8 @@
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="U25:V25"/>
     <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AD25:AE25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="I26:J26"/>
@@ -2878,6 +3009,8 @@
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="U26:V26"/>
     <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AD26:AE26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="I27:J27"/>
@@ -2886,6 +3019,8 @@
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="U27:V27"/>
     <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AD27:AE27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="I28:J28"/>
@@ -2894,6 +3029,8 @@
     <mergeCell ref="R28:S28"/>
     <mergeCell ref="U28:V28"/>
     <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="AD28:AE28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="I29:J29"/>
@@ -2902,6 +3039,8 @@
     <mergeCell ref="R29:S29"/>
     <mergeCell ref="U29:V29"/>
     <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AD29:AE29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="I30:J30"/>
@@ -2910,6 +3049,8 @@
     <mergeCell ref="R30:S30"/>
     <mergeCell ref="U30:V30"/>
     <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="AD30:AE30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="I31:J31"/>
@@ -2945,9 +3086,13 @@
     <mergeCell ref="R38:S38"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="F39:G39"/>
+    <mergeCell ref="AA39:AB39"/>
+    <mergeCell ref="AD39:AE39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="I40:J40"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AD40:AE40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="I41:J41"/>
@@ -2956,6 +3101,7 @@
     <mergeCell ref="U41:V41"/>
     <mergeCell ref="X41:Y41"/>
     <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="AD41:AE41"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="L42:M42"/>
@@ -2963,6 +3109,7 @@
     <mergeCell ref="U42:V42"/>
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AD42:AE42"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="I43:J43"/>
@@ -2971,6 +3118,7 @@
     <mergeCell ref="U43:V43"/>
     <mergeCell ref="X43:Y43"/>
     <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="AD43:AE43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="I44:J44"/>
@@ -2980,6 +3128,7 @@
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="X44:Y44"/>
     <mergeCell ref="AA44:AB44"/>
+    <mergeCell ref="AD44:AE44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="I45:J45"/>
@@ -2989,6 +3138,7 @@
     <mergeCell ref="U45:V45"/>
     <mergeCell ref="X45:Y45"/>
     <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AD45:AE45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="I46:J46"/>
@@ -2998,6 +3148,7 @@
     <mergeCell ref="U46:V46"/>
     <mergeCell ref="X46:Y46"/>
     <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AD46:AE46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="I47:J47"/>
@@ -3007,6 +3158,7 @@
     <mergeCell ref="U47:V47"/>
     <mergeCell ref="X47:Y47"/>
     <mergeCell ref="AA47:AB47"/>
+    <mergeCell ref="AD47:AE47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="I48:J48"/>
@@ -3016,6 +3168,7 @@
     <mergeCell ref="U48:V48"/>
     <mergeCell ref="X48:Y48"/>
     <mergeCell ref="AA48:AB48"/>
+    <mergeCell ref="AD48:AE48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="I49:J49"/>
@@ -3024,7 +3177,7 @@
     <mergeCell ref="R49:S49"/>
     <mergeCell ref="U49:V49"/>
     <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="AA49:AB49"/>
+    <mergeCell ref="AD49:AE49"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="F50:G50"/>
     <mergeCell ref="I50:J50"/>
@@ -3032,13 +3185,14 @@
     <mergeCell ref="O50:P50"/>
     <mergeCell ref="R50:S50"/>
     <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="AA50:AB50"/>
+    <mergeCell ref="AD50:AE50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="O51:P51"/>
     <mergeCell ref="R51:S51"/>
+    <mergeCell ref="AD51:AE51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="O52:P52"/>
     <mergeCell ref="R52:S52"/>
